--- a/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-30,37%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,84; 37,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 55,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,19; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,78%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 8,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,81; -2,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,34; -0,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 11,91</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,27%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 11,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,22; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 13,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,23; -0,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,73; 141,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,77; 1,0</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,41%</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 10,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,33; 8,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; -0,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 20,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,81; 302,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,97; 735,09</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 14,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 18,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 8,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,21; 276,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,84; 193,62</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,6%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 6,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 2,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 2,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 2,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,46; 93,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 136,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,34; 125,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,13; 30,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,3</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,37</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,37%</t>
+          <t>-35,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-79,08%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 37,07</t>
+          <t>-12,66; 7,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-20,68; -2,46</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 8,67</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-24,78; -2,82</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 195,14</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 55,78</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-48,19; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,13</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-39,31%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-72,78%</t>
+          <t>-56,62%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 8,96</t>
+          <t>-10,02; 11,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -2,65</t>
+          <t>-21,22; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 0,0</t>
+          <t>-3,16; 13,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -0,65</t>
+          <t>-16,04; -0,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-67,73; 141,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 11,91</t>
+          <t>-83,17; 4,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-30,75%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>90,2%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-57,27%</t>
+          <t>46,86%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 11,36</t>
+          <t>-8,12; 10,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 0,0</t>
+          <t>-9,33; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 13,32</t>
+          <t>-7,36; -0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -0,69</t>
+          <t>-11,56; 16,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 141,66</t>
+          <t>-80,81; 302,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,77; 1,0</t>
+          <t>-65,79; 473,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>145,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-69,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>13,97%</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 10,65</t>
+          <t>-1,65; 14,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 8,3</t>
+          <t>-3,0; 18,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; -0,84</t>
+          <t>-9,39; 1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 20,65</t>
+          <t>-6,1; 8,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,81; 302,72</t>
+          <t>-21,21; 276,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 735,09</t>
+          <t>-54,43; 198,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>145,85%</t>
+          <t>-48,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-69,16%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>-24,84%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 14,27</t>
+          <t>-3,3; 6,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 18,22</t>
+          <t>-7,32; 2,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 1,35</t>
+          <t>-3,64; 2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,43</t>
+          <t>-7,52; 2,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 276,12</t>
+          <t>-30,46; 93,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 136,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,34; 125,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 193,62</t>
+          <t>-55,99; 25,61</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,51%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-48,18%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-29,27%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-20,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 6,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 2,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 2,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 2,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-30,46; 93,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 136,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-81,34; 125,13</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-50,13; 30,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Habitat-trans_bre.xlsx
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 7,97</t>
+          <t>-11,97; 7,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -2,46</t>
+          <t>-25,03; -2,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,67</t>
+          <t>-4,64; 8,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; -2,82</t>
+          <t>-25,08; -2,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 195,14</t>
+          <t>-100,0; 224,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -19,48</t>
+          <t>-100,0; -4,31</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 11,36</t>
+          <t>-9,43; 11,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 0,0</t>
+          <t>-20,1; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 13,32</t>
+          <t>-3,04; 12,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -0,64</t>
+          <t>-16,22; -0,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 141,66</t>
+          <t>-69,73; 155,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,17; 4,65</t>
+          <t>-84,79; 2,08</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 10,65</t>
+          <t>-7,93; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 8,3</t>
+          <t>-9,28; 7,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; -0,84</t>
+          <t>-7,29; -0,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 16,5</t>
+          <t>-11,04; 18,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,81; 302,72</t>
+          <t>-77,98; 284,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,79; 473,43</t>
+          <t>-68,39; 492,38</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 14,27</t>
+          <t>-1,72; 14,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 18,22</t>
+          <t>-5,3; 18,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 1,35</t>
+          <t>-9,44; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,65</t>
+          <t>-7,32; 8,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 276,12</t>
+          <t>-21,89; 277,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 198,74</t>
+          <t>-57,02; 220,8</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,86</t>
+          <t>-2,84; 6,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,16</t>
+          <t>-7,91; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,17</t>
+          <t>-3,54; 2,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,04</t>
+          <t>-7,97; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 93,45</t>
+          <t>-26,04; 88,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,17</t>
+          <t>-100,0; 96,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-81,34; 125,13</t>
+          <t>-79,45; 108,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 25,61</t>
+          <t>-55,55; 21,33</t>
         </is>
       </c>
     </row>
